--- a/Track B/Unit 5 - SQL_ Relational Databases/mini project/Insurance_Sample Tables.xlsx
+++ b/Track B/Unit 5 - SQL_ Relational Databases/mini project/Insurance_Sample Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NITEEN\Training\Laguardia College\CUNY LaGuardia-20200312T205826Z-001\CUNY LaGuardia\Overview\New\Micro Credential\Course\version 3\Track A\Unit 5 - SQL_ Relational Databases\mini project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EverUp Program\cuny_lagcc_micro_credential_data_analytics\cuny_lagcc_micro_credential_data_analytics\Track B\Unit 5 - SQL_ Relational Databases\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D7A78C-C0F8-425F-8E12-04267605B4E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906020C6-F928-4D5E-8725-26732DD92231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{66FC1BB2-C3AD-4DEB-A788-CBE649D8FA9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{66FC1BB2-C3AD-4DEB-A788-CBE649D8FA9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -301,23 +316,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,351 +652,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED3B806-F6E4-4F82-B7ED-FBDB1277F136}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="28" customWidth="1"/>
+    <col min="7" max="7" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
     <col min="9" max="9" width="3.453125" customWidth="1"/>
-    <col min="10" max="10" width="31.453125" customWidth="1"/>
-    <col min="11" max="11" width="27.1796875" customWidth="1"/>
+    <col min="10" max="10" width="37.453125" customWidth="1"/>
+    <col min="11" max="11" width="64.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.65">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="114" x14ac:dyDescent="0.65">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="142.5" x14ac:dyDescent="0.65">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="114" x14ac:dyDescent="0.65">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="114" x14ac:dyDescent="0.65">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="85.5" x14ac:dyDescent="0.65">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="57" x14ac:dyDescent="0.65">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="57" x14ac:dyDescent="0.65">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.65">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,6 +1239,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1192F6A115BDB428A291EA2F52C2F02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fbdc4a9643513c82a52647242de2f3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="768472ad-6a74-4580-a156-3bca4462b049" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31af3e3c7640f7f4cc1f0a59126d5093" ns3:_="">
     <xsd:import namespace="768472ad-6a74-4580-a156-3bca4462b049"/>
@@ -1168,15 +1431,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1184,6 +1438,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E318BBD-AB92-43CC-880E-2639CD3BA627}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D951F49-BC21-4DC6-AB21-7B37CF9B5E42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1201,14 +1463,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E318BBD-AB92-43CC-880E-2639CD3BA627}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DE4FE3-B79D-42A4-8588-7ECB4AF40C0C}">
   <ds:schemaRefs>
